--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.722831000000001</v>
+        <v>2.33201</v>
       </c>
       <c r="N2">
-        <v>11.168493</v>
+        <v>6.99603</v>
       </c>
       <c r="O2">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789547</v>
       </c>
       <c r="P2">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789548</v>
       </c>
       <c r="Q2">
-        <v>151.7179886108647</v>
+        <v>83.34335869784667</v>
       </c>
       <c r="R2">
-        <v>1365.461897497782</v>
+        <v>750.0902282806201</v>
       </c>
       <c r="S2">
-        <v>0.004344502168738791</v>
+        <v>0.006440469084332682</v>
       </c>
       <c r="T2">
-        <v>0.004344502168738791</v>
+        <v>0.006440469084332682</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>1.746044</v>
       </c>
       <c r="N3">
-        <v>5.238132</v>
+        <v>5.238131999999999</v>
       </c>
       <c r="O3">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
       <c r="P3">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
       <c r="Q3">
-        <v>71.15721441721867</v>
+        <v>62.40160693745866</v>
       </c>
       <c r="R3">
-        <v>640.4149297549681</v>
+        <v>561.6144624371279</v>
       </c>
       <c r="S3">
-        <v>0.002037613833320221</v>
+        <v>0.004822167315699578</v>
       </c>
       <c r="T3">
-        <v>0.002037613833320221</v>
+        <v>0.004822167315699577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H4">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.291125333333333</v>
+        <v>1.145780666666667</v>
       </c>
       <c r="N4">
-        <v>3.873376</v>
+        <v>3.437342</v>
       </c>
       <c r="O4">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
       <c r="P4">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
       <c r="Q4">
-        <v>52.61773596971377</v>
+        <v>40.94888490660755</v>
       </c>
       <c r="R4">
-        <v>473.559623727424</v>
+        <v>368.539964159468</v>
       </c>
       <c r="S4">
-        <v>0.001506728833723653</v>
+        <v>0.003164379638634807</v>
       </c>
       <c r="T4">
-        <v>0.001506728833723653</v>
+        <v>0.003164379638634807</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H5">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.46242466666667</v>
+        <v>1.835881666666667</v>
       </c>
       <c r="N5">
-        <v>34.387274</v>
+        <v>5.507645</v>
       </c>
       <c r="O5">
-        <v>0.629028500140166</v>
+        <v>0.2600503447990285</v>
       </c>
       <c r="P5">
-        <v>0.6290285001401661</v>
+        <v>0.2600503447990286</v>
       </c>
       <c r="Q5">
-        <v>467.1326780695195</v>
+        <v>65.61230195059223</v>
       </c>
       <c r="R5">
-        <v>4204.194102625676</v>
+        <v>590.5107175553301</v>
       </c>
       <c r="S5">
-        <v>0.0133765214760859</v>
+        <v>0.005070278050548593</v>
       </c>
       <c r="T5">
-        <v>0.0133765214760859</v>
+        <v>0.005070278050548593</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J6">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.722831000000001</v>
+        <v>2.33201</v>
       </c>
       <c r="N6">
-        <v>11.168493</v>
+        <v>6.99603</v>
       </c>
       <c r="O6">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789547</v>
       </c>
       <c r="P6">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789548</v>
       </c>
       <c r="Q6">
-        <v>6288.938598827175</v>
+        <v>3939.439556039733</v>
       </c>
       <c r="R6">
-        <v>56600.44738944458</v>
+        <v>35454.9560043576</v>
       </c>
       <c r="S6">
-        <v>0.1800861429276368</v>
+        <v>0.3044254403311765</v>
       </c>
       <c r="T6">
-        <v>0.1800861429276368</v>
+        <v>0.3044254403311766</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J7">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>1.746044</v>
       </c>
       <c r="N7">
-        <v>5.238132</v>
+        <v>5.238131999999999</v>
       </c>
       <c r="O7">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
       <c r="P7">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
       <c r="Q7">
-        <v>2949.573458169494</v>
+        <v>2949.573458169493</v>
       </c>
       <c r="R7">
-        <v>26546.16112352545</v>
+        <v>26546.16112352543</v>
       </c>
       <c r="S7">
-        <v>0.08446215510237846</v>
+        <v>0.227932218788774</v>
       </c>
       <c r="T7">
-        <v>0.08446215510237845</v>
+        <v>0.227932218788774</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J8">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.291125333333333</v>
+        <v>1.145780666666667</v>
       </c>
       <c r="N8">
-        <v>3.873376</v>
+        <v>3.437342</v>
       </c>
       <c r="O8">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
       <c r="P8">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
       <c r="Q8">
-        <v>2181.084219166436</v>
+        <v>1935.555027985404</v>
       </c>
       <c r="R8">
-        <v>19629.75797249792</v>
+        <v>17419.99525186864</v>
       </c>
       <c r="S8">
-        <v>0.06245617416319982</v>
+        <v>0.149572593587913</v>
       </c>
       <c r="T8">
-        <v>0.06245617416319982</v>
+        <v>0.149572593587913</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J9">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.46242466666667</v>
+        <v>1.835881666666667</v>
       </c>
       <c r="N9">
-        <v>34.387274</v>
+        <v>5.507645</v>
       </c>
       <c r="O9">
-        <v>0.629028500140166</v>
+        <v>0.2600503447990285</v>
       </c>
       <c r="P9">
-        <v>0.6290285001401661</v>
+        <v>0.2600503447990286</v>
       </c>
       <c r="Q9">
-        <v>19363.35141787223</v>
+        <v>3101.335267805377</v>
       </c>
       <c r="R9">
-        <v>174270.1627608501</v>
+        <v>27912.0174102484</v>
       </c>
       <c r="S9">
-        <v>0.5544769146970686</v>
+        <v>0.2396598148253799</v>
       </c>
       <c r="T9">
-        <v>0.5544769146970686</v>
+        <v>0.23965981482538</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H10">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I10">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J10">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.722831000000001</v>
+        <v>2.33201</v>
       </c>
       <c r="N10">
-        <v>11.168493</v>
+        <v>6.99603</v>
       </c>
       <c r="O10">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789547</v>
       </c>
       <c r="P10">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789548</v>
       </c>
       <c r="Q10">
-        <v>317.9772235677008</v>
+        <v>218.37303801153</v>
       </c>
       <c r="R10">
-        <v>2861.795012109307</v>
+        <v>1965.35734210377</v>
       </c>
       <c r="S10">
-        <v>0.009105398443836793</v>
+        <v>0.01687506745755139</v>
       </c>
       <c r="T10">
-        <v>0.009105398443836791</v>
+        <v>0.01687506745755139</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H11">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I11">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J11">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>1.746044</v>
       </c>
       <c r="N11">
-        <v>5.238132</v>
+        <v>5.238131999999999</v>
       </c>
       <c r="O11">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
       <c r="P11">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
       <c r="Q11">
-        <v>149.1344150048827</v>
+        <v>163.502271766332</v>
       </c>
       <c r="R11">
-        <v>1342.209735043944</v>
+        <v>1471.520445896988</v>
       </c>
       <c r="S11">
-        <v>0.004270520558271532</v>
+        <v>0.01263485588992022</v>
       </c>
       <c r="T11">
-        <v>0.004270520558271531</v>
+        <v>0.01263485588992022</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H12">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I12">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J12">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.291125333333333</v>
+        <v>1.145780666666667</v>
       </c>
       <c r="N12">
-        <v>3.873376</v>
+        <v>3.437342</v>
       </c>
       <c r="O12">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
       <c r="P12">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
       <c r="Q12">
-        <v>110.2785618716658</v>
+        <v>107.292681024042</v>
       </c>
       <c r="R12">
-        <v>992.507056844992</v>
+        <v>965.634129216378</v>
       </c>
       <c r="S12">
-        <v>0.003157868461107042</v>
+        <v>0.008291184875518628</v>
       </c>
       <c r="T12">
-        <v>0.003157868461107041</v>
+        <v>0.008291184875518628</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H13">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I13">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J13">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.46242466666667</v>
+        <v>1.835881666666667</v>
       </c>
       <c r="N13">
-        <v>34.387274</v>
+        <v>5.507645</v>
       </c>
       <c r="O13">
-        <v>0.629028500140166</v>
+        <v>0.2600503447990285</v>
       </c>
       <c r="P13">
-        <v>0.6290285001401661</v>
+        <v>0.2600503447990286</v>
       </c>
       <c r="Q13">
-        <v>979.0371818813676</v>
+        <v>171.914810390895</v>
       </c>
       <c r="R13">
-        <v>8811.334636932308</v>
+        <v>1547.233293518055</v>
       </c>
       <c r="S13">
-        <v>0.02803510116963759</v>
+        <v>0.01328494602042095</v>
       </c>
       <c r="T13">
-        <v>0.0280351011696376</v>
+        <v>0.01328494602042096</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H14">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.722831000000001</v>
+        <v>2.33201</v>
       </c>
       <c r="N14">
-        <v>11.168493</v>
+        <v>6.99603</v>
       </c>
       <c r="O14">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789547</v>
       </c>
       <c r="P14">
-        <v>0.2042994277655142</v>
+        <v>0.3303263034789548</v>
       </c>
       <c r="Q14">
-        <v>375.8771297340057</v>
+        <v>33.45560701320333</v>
       </c>
       <c r="R14">
-        <v>3382.894167606051</v>
+        <v>301.10046311883</v>
       </c>
       <c r="S14">
-        <v>0.0107633842253018</v>
+        <v>0.002585326605894115</v>
       </c>
       <c r="T14">
-        <v>0.0107633842253018</v>
+        <v>0.002585326605894115</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H15">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>1.746044</v>
       </c>
       <c r="N15">
-        <v>5.238132</v>
+        <v>5.238131999999999</v>
       </c>
       <c r="O15">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
       <c r="P15">
-        <v>0.09581842153280916</v>
+        <v>0.2473249515360603</v>
       </c>
       <c r="Q15">
-        <v>176.2900349517026</v>
+        <v>25.04919013716133</v>
       </c>
       <c r="R15">
-        <v>1586.610314565324</v>
+        <v>225.442711234452</v>
       </c>
       <c r="S15">
-        <v>0.005048132038838953</v>
+        <v>0.001935709541666538</v>
       </c>
       <c r="T15">
-        <v>0.005048132038838953</v>
+        <v>0.001935709541666538</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H16">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.291125333333333</v>
+        <v>1.145780666666667</v>
       </c>
       <c r="N16">
-        <v>3.873376</v>
+        <v>3.437342</v>
       </c>
       <c r="O16">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
       <c r="P16">
-        <v>0.07085365056151051</v>
+        <v>0.1622984001859565</v>
       </c>
       <c r="Q16">
-        <v>130.3589887427591</v>
+        <v>16.43766009036245</v>
       </c>
       <c r="R16">
-        <v>1173.230898684832</v>
+        <v>147.938940813262</v>
       </c>
       <c r="S16">
-        <v>0.003732879103479993</v>
+        <v>0.001270242083890047</v>
       </c>
       <c r="T16">
-        <v>0.003732879103479993</v>
+        <v>0.001270242083890048</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H17">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.46242466666667</v>
+        <v>1.835881666666667</v>
       </c>
       <c r="N17">
-        <v>34.387274</v>
+        <v>5.507645</v>
       </c>
       <c r="O17">
-        <v>0.629028500140166</v>
+        <v>0.2600503447990285</v>
       </c>
       <c r="P17">
-        <v>0.6290285001401661</v>
+        <v>0.2600503447990286</v>
       </c>
       <c r="Q17">
-        <v>1157.308318185524</v>
+        <v>26.33802409198278</v>
       </c>
       <c r="R17">
-        <v>10415.77486366972</v>
+        <v>237.042216827845</v>
       </c>
       <c r="S17">
-        <v>0.03313996279737389</v>
+        <v>0.002035305902679047</v>
       </c>
       <c r="T17">
-        <v>0.03313996279737389</v>
+        <v>0.002035305902679047</v>
       </c>
     </row>
   </sheetData>
